--- a/data/long_dif/P23_10-Urba-long_dif.xlsx
+++ b/data/long_dif/P23_10-Urba-long_dif.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -596,37 +627,52 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>28,4%</t>
+          <t>27,71%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>25,32%</t>
+          <t>25,14%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>22,28%</t>
+          <t>22,86%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19,93%</t>
+          <t>21,94%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>25,26%</t>
+          <t>20,01%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>22,52%</t>
+          <t>19,57%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>24,74%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>22,47%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>21,14%</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>23,84; 33,51</t>
+          <t>23,13; 32,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20,72; 32,62</t>
+          <t>20,51; 31,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,58; 26,49</t>
+          <t>17,22; 27,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,79; 23,27</t>
+          <t>18,23; 25,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>22,17; 28,36</t>
+          <t>17,04; 23,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,76; 26,37</t>
+          <t>16,02; 23,74</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>21,78; 27,69</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>19,95; 26,48</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>18,18; 24,71</t>
         </is>
       </c>
     </row>
@@ -672,37 +733,52 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>50,79%</t>
+          <t>51,36%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>53,01%</t>
+          <t>52,69%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>56,78%</t>
+          <t>46,2%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>59,32%</t>
+          <t>56,93%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>53,86%</t>
+          <t>59,25%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>56,29%</t>
+          <t>58,51%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>54,23%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>56,11%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>52,63%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>45,28; 56,97</t>
+          <t>45,95; 58,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>47,02; 57,93</t>
+          <t>46,75; 57,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>52,53; 61,31</t>
+          <t>37,54; 52,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>55,52; 63,54</t>
+          <t>52,32; 61,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>50,65; 58,03</t>
+          <t>55,02; 63,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>52,54; 59,38</t>
+          <t>53,51; 63,89</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>50,63; 57,97</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>52,27; 59,16</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>47,25; 56,63</t>
         </is>
       </c>
     </row>
@@ -748,37 +839,52 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>20,81%</t>
+          <t>20,93%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>21,67%</t>
+          <t>22,16%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>20,94%</t>
+          <t>30,93%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>20,75%</t>
+          <t>21,13%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>20,88%</t>
+          <t>20,74%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>21,19%</t>
+          <t>21,92%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>21,03%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>21,42%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>26,22%</t>
         </is>
       </c>
     </row>
@@ -791,74 +897,100 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,86; 25,35</t>
+          <t>17,13; 25,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,05; 25,86</t>
+          <t>18,25; 26,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,28; 24,53</t>
+          <t>24,52; 44,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,11; 24,2</t>
+          <t>17,59; 25,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,2; 23,37</t>
+          <t>17,63; 24,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,73; 23,63</t>
+          <t>17,99; 26,48</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>18,46; 24,02</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>19,16; 24,18</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>22,35; 32,35</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>21,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>27,17%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>28,85%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>19,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25,05%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>23,23%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -871,70 +1003,104 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,58; 25,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>22,04; 32,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>23,78; 34,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,92; 22,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>21,39; 28,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,35; 26,79</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>54,09%</t>
+          <t>21,07%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>52,88%</t>
+          <t>27,62%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>49,28%</t>
+          <t>22,02%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>61,97%</t>
+          <t>28,64%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>51,67%</t>
+          <t>19,82%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>57,38%</t>
+          <t>24,25%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>24,89%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>23,77%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>23,13%</t>
         </is>
       </c>
     </row>
@@ -947,32 +1113,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>47,7; 60,81</t>
+          <t>16,83; 26,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>46,95; 58,17</t>
+          <t>22,6; 33,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>43,95; 55,08</t>
+          <t>16,94; 27,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>57,11; 66,58</t>
+          <t>24,05; 34,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>47,36; 56,54</t>
+          <t>16,26; 23,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>53,26; 60,8</t>
+          <t>19,52; 31,29</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>21,6; 28,43</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>20,58; 27,69</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>19,51; 27,43</t>
         </is>
       </c>
     </row>
@@ -980,37 +1161,52 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>24,73%</t>
+          <t>53,68%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>19,95%</t>
+          <t>51,65%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>21,86%</t>
+          <t>56,38%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>18,82%</t>
+          <t>49,06%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>23,29%</t>
+          <t>61,56%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>19,39%</t>
+          <t>52,85%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>51,36%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>56,54%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>54,62%</t>
         </is>
       </c>
     </row>
@@ -1023,74 +1219,100 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>19,5; 30,41</t>
+          <t>46,79; 59,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>16,37; 24,55</t>
+          <t>46,4; 58,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,62; 26,23</t>
+          <t>48,46; 62,81</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,3; 22,51</t>
+          <t>43,42; 54,22</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>19,56; 26,77</t>
+          <t>57,17; 65,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>16,53; 22,34</t>
+          <t>47,22; 58,62</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>47,38; 55,66</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>52,69; 60,02</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>49,34; 58,99</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>34,63%</t>
+          <t>25,24%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>14,21%</t>
+          <t>20,73%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>19,11%</t>
+          <t>21,6%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>18,18%</t>
+          <t>22,3%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>27,0%</t>
+          <t>18,62%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>16,18%</t>
+          <t>22,91%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>23,76%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>19,69%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>22,25%</t>
         </is>
       </c>
     </row>
@@ -1103,32 +1325,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>22,86; 46,7</t>
+          <t>20,06; 31,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,92; 29,89</t>
+          <t>16,33; 24,96</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,44; 28,41</t>
+          <t>16,54; 29,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,89; 26,98</t>
+          <t>18,04; 26,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>19,86; 34,6</t>
+          <t>15,37; 22,14</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>11,25; 23,85</t>
+          <t>18,56; 28,06</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>20,3; 27,36</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>16,93; 22,69</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>18,65; 26,86</t>
         </is>
       </c>
     </row>
@@ -1136,37 +1373,52 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>45,43%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>61,79%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>54,95%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>56,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>50,12%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>59,21%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1179,70 +1431,104 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>32,18; 56,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>50,13; 71,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>45,11; 65,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>47,3; 65,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>41,33; 57,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>51,85; 65,32</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>19,93%</t>
+          <t>32,42%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>24,0%</t>
+          <t>14,33%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>25,94%</t>
+          <t>28,01%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>25,23%</t>
+          <t>19,73%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>22,89%</t>
+          <t>18,3%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>24,61%</t>
+          <t>17,19%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>26,16%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>16,31%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>22,56%</t>
         </is>
       </c>
     </row>
@@ -1255,74 +1541,100 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>11,61; 38,89</t>
+          <t>21,79; 44,12</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>16,25; 33,28</t>
+          <t>7,85; 29,4</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>17,71; 35,55</t>
+          <t>15,44; 45,56</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>17,55; 34,04</t>
+          <t>12,89; 29,36</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>16,72; 32,48</t>
+          <t>12,15; 26,02</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>19,13; 31,58</t>
+          <t>10,27; 25,94</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>19,85; 33,7</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>11,46; 24,32</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>14,95; 32,58</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>26,27%</t>
+          <t>45,07%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>24,72%</t>
+          <t>60,57%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>24,51%</t>
+          <t>38,11%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>19,46%</t>
+          <t>54,25%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>25,38%</t>
+          <t>56,16%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>22,05%</t>
+          <t>64,58%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>49,6%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>58,37%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>51,45%</t>
         </is>
       </c>
     </row>
@@ -1335,32 +1647,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>23,15; 29,98</t>
+          <t>32,08; 57,35</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>21,4; 28,99</t>
+          <t>48,83; 70,16</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>21,78; 27,82</t>
+          <t>22,69; 53,01</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>17,35; 21,86</t>
+          <t>43,82; 63,87</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>23,17; 27,8</t>
+          <t>47,49; 64,19</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>20,08; 24,53</t>
+          <t>52,96; 74,46</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>40,46; 57,79</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>50,95; 66,08</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>39,51; 61,1</t>
         </is>
       </c>
     </row>
@@ -1368,37 +1695,52 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>51,46%</t>
+          <t>22,52%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>54,01%</t>
+          <t>25,1%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>53,62%</t>
+          <t>33,88%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>60,01%</t>
+          <t>26,02%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>52,56%</t>
+          <t>25,54%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>57,06%</t>
+          <t>18,23%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>24,24%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>25,32%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>26,0%</t>
         </is>
       </c>
     </row>
@@ -1411,32 +1753,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>47,4; 55,59</t>
+          <t>11,26; 42,44</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>50,42; 57,7</t>
+          <t>17,52; 36,38</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>50,37; 56,93</t>
+          <t>19,02; 57,22</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>57,22; 63,01</t>
+          <t>18,87; 36,15</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>49,96; 55,04</t>
+          <t>17,78; 33,36</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>54,5; 59,33</t>
+          <t>10,4; 28,88</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>18,18; 37,96</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>19,53; 32,45</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>17,17; 41,43</t>
         </is>
       </c>
     </row>
@@ -1444,37 +1801,52 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>22,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>21,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>21,87%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>20,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>22,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>20,9%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1487,45 +1859,495 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>18,97; 25,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>18,87; 24,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>19,42; 24,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>18,4; 23,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>20,18; 24,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>19,17; 22,68</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>25,62%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>24,84%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>23,13%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>24,32%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>19,74%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>21,09%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>24,96%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>22,25%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>22,09%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>22,29; 28,85</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>21,5; 29,55</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>19,23; 26,77</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>21,62; 27,44</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>17,6; 22,11</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>18,02; 24,22</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>22,76; 27,14</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>20,21; 24,47</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>19,81; 24,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>51,54%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>53,22%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>49,36%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>53,54%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>59,76%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>57,03%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>52,56%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>56,54%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>53,28%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>47,58; 55,87</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>49,18; 56,89</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>44,33; 54,23</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>50,46; 56,74</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>57,01; 62,69</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>53,18; 60,37</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>50,06; 55,04</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>54,42; 58,98</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>49,86; 56,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>22,84%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>21,94%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>27,51%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>22,14%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>20,5%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>21,88%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>22,48%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>21,21%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>24,63%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>19,93; 26,54</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>19,13; 24,76</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>22,92; 35,0</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>19,43; 24,71</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>18,2; 23,0</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>19,16; 25,31</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>20,45; 25,02</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>19,48; 22,9</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>21,88; 28,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
